--- a/Database/Employee_payroll_table_07_07_2020.xlsx
+++ b/Database/Employee_payroll_table_07_07_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9517FBDC-19D8-489D-A545-EA0537D831FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153D0442-B90A-462B-9BF5-5E10C4424A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1620" windowWidth="16545" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20760" yWindow="2835" windowWidth="3240" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="140">
   <si>
     <t>Ryan</t>
   </si>
@@ -71,6 +71,312 @@
     <t>Logistics</t>
   </si>
   <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Allena</t>
+  </si>
+  <si>
+    <t>Coon</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Allena.Coon@gmail.com</t>
+  </si>
+  <si>
+    <t>(920) 788-9477</t>
+  </si>
+  <si>
+    <t>5381 Ray Rd, De Pere, Wisconsin(WI), 54115</t>
+  </si>
+  <si>
+    <t>Hershel</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Hershel.Arnold@gmail.com</t>
+  </si>
+  <si>
+    <t>(802) 257-5340</t>
+  </si>
+  <si>
+    <t>68 Main St, Brattleboro, Vermont(VT), 05301</t>
+  </si>
+  <si>
+    <t>Alisa</t>
+  </si>
+  <si>
+    <t>Avila</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Alisa.Avila@gmail.com</t>
+  </si>
+  <si>
+    <t>(410) 257-2393</t>
+  </si>
+  <si>
+    <t>3407 Lyons Creek Rd, Dunkirk, Maryland(MD), 20754</t>
+  </si>
+  <si>
+    <t>Brande</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Brande.Duncan@gmail.com</t>
+  </si>
+  <si>
+    <t>(607) 746-9486</t>
+  </si>
+  <si>
+    <t>41861 State 10 Hwy, Delhi, New York(NY), 13753</t>
+  </si>
+  <si>
+    <t>Madalyn</t>
+  </si>
+  <si>
+    <t>Smiley</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Madalyn.Smiley@gmail.com</t>
+  </si>
+  <si>
+    <t>(740) 596-0439</t>
+  </si>
+  <si>
+    <t>64810 Infirmary Rd, Mc Arthur, Ohio(OH), 45651</t>
+  </si>
+  <si>
+    <t>Eloy</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Eloy.Lopez@gmail.com</t>
+  </si>
+  <si>
+    <t>(318) 872-9889</t>
+  </si>
+  <si>
+    <t>226 Denica Ln, Grand Cane, Louisiana(LA), 71032</t>
+  </si>
+  <si>
+    <t>Shala</t>
+  </si>
+  <si>
+    <t>Forrest</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Shala.Forrest@gmail.com</t>
+  </si>
+  <si>
+    <t>(504) 895-4379</t>
+  </si>
+  <si>
+    <t>2430 Willow St, New Orleans, Louisiana(LA), 70113</t>
+  </si>
+  <si>
+    <t>Carey</t>
+  </si>
+  <si>
+    <t>Crowder</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Carey.Crowder@gmail.com</t>
+  </si>
+  <si>
+    <t>(501) 729-3026</t>
+  </si>
+  <si>
+    <t>116 Warren Rd, Judsonia, Arkansas(AR), 72081</t>
+  </si>
+  <si>
+    <t>Genna</t>
+  </si>
+  <si>
+    <t>Holcomb</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Genna.Holcomb@gmail.com</t>
+  </si>
+  <si>
+    <t>(724) 379-4415</t>
+  </si>
+  <si>
+    <t>785 Mckean Ave, Donora, Pennsylvania(PA), 15033</t>
+  </si>
+  <si>
+    <t>Nicolasa</t>
+  </si>
+  <si>
+    <t>Andrade</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Nicolasa.Andrade@gmail.com</t>
+  </si>
+  <si>
+    <t>(781) 936-8347</t>
+  </si>
+  <si>
+    <t>34 Vine St, Duxbury, Massachusetts(MA), 02332</t>
+  </si>
+  <si>
+    <t>Celia</t>
+  </si>
+  <si>
+    <t>Hunt</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Celia.Hunt@gmail.com</t>
+  </si>
+  <si>
+    <t>(302) 875-0873</t>
+  </si>
+  <si>
+    <t>10126 Woodland Ferry Rd, Laurel, Delaware(DE), 19956</t>
+  </si>
+  <si>
+    <t>Annamaria</t>
+  </si>
+  <si>
+    <t>Jewell</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Annamaria.Jewell@gmail.com</t>
+  </si>
+  <si>
+    <t>(229) 405-1040</t>
+  </si>
+  <si>
+    <t>1716 Jean Ave, Albany, Georgia(GA), 31705</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>Rouse</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Eddie.Rouse@gmail.com</t>
+  </si>
+  <si>
+    <t>(260) 755-6621</t>
+  </si>
+  <si>
+    <t>1406 Kitch St, Fort Wayne, Indiana(IN), 46803</t>
+  </si>
+  <si>
+    <t>Ernestine</t>
+  </si>
+  <si>
+    <t>Napier</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Ernestine.Napier@gmail.com</t>
+  </si>
+  <si>
+    <t>(772) 569-0736</t>
+  </si>
+  <si>
+    <t>3175 69th St, Vero Beach, Florida(FL), 32967</t>
+  </si>
+  <si>
+    <t>Jerica</t>
+  </si>
+  <si>
+    <t>Thacker</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Jerica.Thacker@gmail.com</t>
+  </si>
+  <si>
+    <t>(916) 984-8382</t>
+  </si>
+  <si>
+    <t>1146 Knopfler Cir, Folsom, California(CA), 95630</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Sidney.Hand@gmail.com</t>
+  </si>
+  <si>
+    <t>(563) 263-2171</t>
+  </si>
+  <si>
+    <t>1851 Pike Run Ln, Nichols, Iowa(IA), 52766</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>Dennison</t>
+  </si>
+  <si>
+    <t>cyberdynesystemsmodel545+Sonia.Dennison@gmail.com</t>
+  </si>
+  <si>
+    <t>(231) 972-4906</t>
+  </si>
+  <si>
+    <t>15542 Jaeger Dr, Mecosta, Michigan(MI), 49332</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hourly Rate (£) </t>
+  </si>
+  <si>
+    <t>Hours worked</t>
+  </si>
+  <si>
+    <t>Contracted hours</t>
+  </si>
+  <si>
+    <t>Sick days</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £    14.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £    16.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £    20.00 </t>
+  </si>
+  <si>
     <t>Maryann</t>
   </si>
   <si>
@@ -86,379 +392,67 @@
     <t>5714 N Blackwood Rd, Davis Junction, Illinois(IL), 61020</t>
   </si>
   <si>
-    <t>Tech</t>
-  </si>
-  <si>
-    <t>Allena</t>
-  </si>
-  <si>
-    <t>Coon</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Allena.Coon@gmail.com</t>
-  </si>
-  <si>
-    <t>(920) 788-9477</t>
-  </si>
-  <si>
-    <t>5381 Ray Rd, De Pere, Wisconsin(WI), 54115</t>
-  </si>
-  <si>
-    <t>Hershel</t>
-  </si>
-  <si>
-    <t>Arnold</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Hershel.Arnold@gmail.com</t>
-  </si>
-  <si>
-    <t>(802) 257-5340</t>
-  </si>
-  <si>
-    <t>68 Main St, Brattleboro, Vermont(VT), 05301</t>
-  </si>
-  <si>
-    <t>Alisa</t>
-  </si>
-  <si>
-    <t>Avila</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Alisa.Avila@gmail.com</t>
-  </si>
-  <si>
-    <t>(410) 257-2393</t>
-  </si>
-  <si>
-    <t>3407 Lyons Creek Rd, Dunkirk, Maryland(MD), 20754</t>
-  </si>
-  <si>
-    <t>Brande</t>
-  </si>
-  <si>
-    <t>Duncan</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Brande.Duncan@gmail.com</t>
-  </si>
-  <si>
-    <t>(607) 746-9486</t>
-  </si>
-  <si>
-    <t>41861 State 10 Hwy, Delhi, New York(NY), 13753</t>
-  </si>
-  <si>
-    <t>Madalyn</t>
-  </si>
-  <si>
-    <t>Smiley</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Madalyn.Smiley@gmail.com</t>
-  </si>
-  <si>
-    <t>(740) 596-0439</t>
-  </si>
-  <si>
-    <t>64810 Infirmary Rd, Mc Arthur, Ohio(OH), 45651</t>
+    <t xml:space="preserve"> £    10.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £    25.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £    21.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £    13.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £       8.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £    22.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £    24.00 </t>
   </si>
   <si>
     <t xml:space="preserve"> £    12.00 </t>
   </si>
   <si>
+    <t xml:space="preserve"> £    18.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £  1,920.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £     800.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £  1,760.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £  1,600.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £  1,120.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £     640.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £  1,040.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £  1,680.00 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> £     960.00 </t>
   </si>
   <si>
-    <t>Eloy</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Eloy.Lopez@gmail.com</t>
-  </si>
-  <si>
-    <t>(318) 872-9889</t>
-  </si>
-  <si>
-    <t>226 Denica Ln, Grand Cane, Louisiana(LA), 71032</t>
-  </si>
-  <si>
-    <t>Shala</t>
-  </si>
-  <si>
-    <t>Forrest</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Shala.Forrest@gmail.com</t>
-  </si>
-  <si>
-    <t>(504) 895-4379</t>
-  </si>
-  <si>
-    <t>2430 Willow St, New Orleans, Louisiana(LA), 70113</t>
-  </si>
-  <si>
-    <t>Carey</t>
-  </si>
-  <si>
-    <t>Crowder</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Carey.Crowder@gmail.com</t>
-  </si>
-  <si>
-    <t>(501) 729-3026</t>
-  </si>
-  <si>
-    <t>116 Warren Rd, Judsonia, Arkansas(AR), 72081</t>
-  </si>
-  <si>
-    <t>Genna</t>
-  </si>
-  <si>
-    <t>Holcomb</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Genna.Holcomb@gmail.com</t>
-  </si>
-  <si>
-    <t>(724) 379-4415</t>
-  </si>
-  <si>
-    <t>785 Mckean Ave, Donora, Pennsylvania(PA), 15033</t>
-  </si>
-  <si>
-    <t>Nicolasa</t>
-  </si>
-  <si>
-    <t>Andrade</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Nicolasa.Andrade@gmail.com</t>
-  </si>
-  <si>
-    <t>(781) 936-8347</t>
-  </si>
-  <si>
-    <t>34 Vine St, Duxbury, Massachusetts(MA), 02332</t>
-  </si>
-  <si>
-    <t>Celia</t>
-  </si>
-  <si>
-    <t>Hunt</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Celia.Hunt@gmail.com</t>
-  </si>
-  <si>
-    <t>(302) 875-0873</t>
-  </si>
-  <si>
-    <t>10126 Woodland Ferry Rd, Laurel, Delaware(DE), 19956</t>
-  </si>
-  <si>
-    <t>Annamaria</t>
-  </si>
-  <si>
-    <t>Jewell</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Annamaria.Jewell@gmail.com</t>
-  </si>
-  <si>
-    <t>(229) 405-1040</t>
-  </si>
-  <si>
-    <t>1716 Jean Ave, Albany, Georgia(GA), 31705</t>
-  </si>
-  <si>
-    <t>Eddie</t>
-  </si>
-  <si>
-    <t>Rouse</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Eddie.Rouse@gmail.com</t>
-  </si>
-  <si>
-    <t>(260) 755-6621</t>
-  </si>
-  <si>
-    <t>1406 Kitch St, Fort Wayne, Indiana(IN), 46803</t>
-  </si>
-  <si>
-    <t>Ernestine</t>
-  </si>
-  <si>
-    <t>Napier</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Ernestine.Napier@gmail.com</t>
-  </si>
-  <si>
-    <t>(772) 569-0736</t>
-  </si>
-  <si>
-    <t>3175 69th St, Vero Beach, Florida(FL), 32967</t>
-  </si>
-  <si>
-    <t>Jerica</t>
-  </si>
-  <si>
-    <t>Thacker</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Jerica.Thacker@gmail.com</t>
-  </si>
-  <si>
-    <t>(916) 984-8382</t>
-  </si>
-  <si>
-    <t>1146 Knopfler Cir, Folsom, California(CA), 95630</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £    20.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,600.00 </t>
-  </si>
-  <si>
-    <t>Sidney</t>
-  </si>
-  <si>
-    <t>Hand</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Sidney.Hand@gmail.com</t>
-  </si>
-  <si>
-    <t>(563) 263-2171</t>
-  </si>
-  <si>
-    <t>1851 Pike Run Ln, Nichols, Iowa(IA), 52766</t>
-  </si>
-  <si>
-    <t>Sonia</t>
-  </si>
-  <si>
-    <t>Dennison</t>
-  </si>
-  <si>
-    <t>cyberdynesystemsmodel545+Sonia.Dennison@gmail.com</t>
-  </si>
-  <si>
-    <t>(231) 972-4906</t>
-  </si>
-  <si>
-    <t>15542 Jaeger Dr, Mecosta, Michigan(MI), 49332</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £    19.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,520.00 </t>
-  </si>
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hourly Rate (£) </t>
-  </si>
-  <si>
-    <t>Hours worked</t>
-  </si>
-  <si>
-    <t>Contracted hours</t>
-  </si>
-  <si>
-    <t>Sick days</t>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>Total cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £    17.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,360.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £    23.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,840.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £    14.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,120.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £    25.00 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> £  2,000.00 </t>
   </si>
   <si>
-    <t xml:space="preserve"> £       7.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £     560.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £       8.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £     640.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £    22.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,760.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £       9.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £     720.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £    15.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,200.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £    13.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,040.00 </t>
+    <t xml:space="preserve"> £  1,280.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £  1,440.00 </t>
   </si>
 </sst>
 </file>
@@ -818,43 +812,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" t="s">
+      <c r="M1" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -880,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="J2">
         <v>80</v>
@@ -895,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -921,22 +915,23 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="I3">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="J3">
         <v>80</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>108</v>
+      <c r="M3">
+        <f>H3*I3</f>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -944,40 +939,40 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4">
+        <v>80</v>
+      </c>
+      <c r="J4">
+        <v>80</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>130</v>
-      </c>
-      <c r="I4">
-        <v>80</v>
-      </c>
-      <c r="J4">
-        <v>80</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -985,25 +980,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I5">
         <v>80</v>
@@ -1018,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1026,25 +1021,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="I6">
         <v>80</v>
@@ -1059,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1067,25 +1062,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="I7">
         <v>80</v>
@@ -1100,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1108,25 +1103,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I8">
         <v>80</v>
@@ -1141,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1149,25 +1144,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="I9">
         <v>80</v>
@@ -1182,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1190,25 +1185,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I10">
         <v>80</v>
@@ -1223,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1231,25 +1226,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I11">
         <v>80</v>
@@ -1264,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1272,40 +1267,40 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12">
+        <v>80</v>
+      </c>
+      <c r="J12">
+        <v>80</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
         <v>134</v>
-      </c>
-      <c r="I12">
-        <v>80</v>
-      </c>
-      <c r="J12">
-        <v>80</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1313,25 +1308,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="I13">
         <v>80</v>
@@ -1346,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1354,40 +1349,40 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
       </c>
       <c r="H14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14">
+        <v>80</v>
+      </c>
+      <c r="J14">
+        <v>80</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
         <v>136</v>
-      </c>
-      <c r="I14">
-        <v>80</v>
-      </c>
-      <c r="J14">
-        <v>80</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1395,25 +1390,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="I15">
         <v>80</v>
@@ -1428,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1436,25 +1431,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="I16">
         <v>80</v>
@@ -1469,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1477,25 +1472,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I17">
         <v>80</v>
@@ -1510,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1518,25 +1513,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="I18">
         <v>80</v>
@@ -1551,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1559,25 +1554,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="I19">
         <v>80</v>
@@ -1592,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1600,25 +1595,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="I20">
         <v>80</v>
@@ -1633,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1641,25 +1636,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I21">
         <v>80</v>
@@ -1674,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Employee_payroll_table_07_07_2020.xlsx
+++ b/Database/Employee_payroll_table_07_07_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153D0442-B90A-462B-9BF5-5E10C4424A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97693CAA-D79F-4E54-AB31-E604FB18F17B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20760" yWindow="2835" windowWidth="3240" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="128">
   <si>
     <t>Ryan</t>
   </si>
@@ -417,42 +417,6 @@
   </si>
   <si>
     <t xml:space="preserve"> £    18.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,920.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £     800.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,760.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,600.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,120.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £     640.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,040.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,680.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £     960.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  2,000.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,280.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> £  1,440.00 </t>
   </si>
 </sst>
 </file>
@@ -488,8 +452,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,9 +772,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -847,7 +818,7 @@
       <c r="L1" t="s">
         <v>109</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -888,8 +859,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>128</v>
+      <c r="M2" s="2">
+        <v>1920</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -929,7 +900,7 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <f>H3*I3</f>
         <v>110</v>
       </c>
@@ -971,8 +942,8 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>130</v>
+      <c r="M4" s="2">
+        <v>1760</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1012,8 +983,8 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>131</v>
+      <c r="M5" s="2">
+        <v>1600</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1053,8 +1024,8 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>130</v>
+      <c r="M6" s="2">
+        <v>1760</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1094,8 +1065,8 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>132</v>
+      <c r="M7" s="2">
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1135,8 +1106,8 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>129</v>
+      <c r="M8" s="1">
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1176,8 +1147,8 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>133</v>
+      <c r="M9" s="1">
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1217,8 +1188,8 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>134</v>
+      <c r="M10" s="2">
+        <v>1040</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1258,8 +1229,8 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>135</v>
+      <c r="M11" s="2">
+        <v>1680</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1299,8 +1270,8 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>134</v>
+      <c r="M12" s="2">
+        <v>1040</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1340,8 +1311,8 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
-        <v>128</v>
+      <c r="M13" s="2">
+        <v>1920</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1381,8 +1352,8 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
-        <v>136</v>
+      <c r="M14" s="1">
+        <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1422,8 +1393,8 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>137</v>
+      <c r="M15" s="2">
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1463,8 +1434,8 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>138</v>
+      <c r="M16" s="2">
+        <v>1280</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1504,8 +1475,8 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>139</v>
+      <c r="M17" s="2">
+        <v>1440</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1545,8 +1516,8 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
-        <v>131</v>
+      <c r="M18" s="2">
+        <v>1600</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1586,8 +1557,8 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>138</v>
+      <c r="M19" s="2">
+        <v>1280</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1627,8 +1598,8 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
-        <v>129</v>
+      <c r="M20" s="1">
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1668,11 +1639,12 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
-        <v>139</v>
+      <c r="M21" s="2">
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>